--- a/target/test-classes/TestCase_v9.xlsx
+++ b/target/test-classes/TestCase_v9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaa./Documents/project/apiAuto/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF87ACB-3065-AA4C-91E3-200CC18AF9CA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4875AA-FB6F-8241-85CA-68C3A6D051AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="1460" windowWidth="27440" windowHeight="16540" activeTab="1" xr2:uid="{2EB20F32-45DC-094A-B138-EAFCA248D3EC}"/>
   </bookViews>
@@ -108,9 +108,6 @@
     <t>{"mobilephone":"18813989003","pwd":"123456"}</t>
   </si>
   <si>
-    <t>{"status":0,"code":"20111","data":null,"msg":"用户名或者密码错误"}</t>
-  </si>
-  <si>
     <t>不满足条件的密码</t>
   </si>
   <si>
@@ -295,13 +292,16 @@
   </si>
   <si>
     <t>{"mobilephone":"18813989107","pwd":"123456"}</t>
+  </si>
+  <si>
+    <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -315,12 +315,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -343,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -353,9 +347,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -680,208 +671,208 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="77.1640625" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="77.1640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="5" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="5" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="5" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="5" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="5" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="5" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -893,21 +884,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00AAF4D-AF41-AD47-9EED-4A471AC20EBF}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="35.1640625" customWidth="1"/>
-    <col min="4" max="4" width="55.33203125" customWidth="1"/>
-    <col min="5" max="5" width="79.1640625" customWidth="1"/>
-    <col min="6" max="6" width="57.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="35.1640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="55.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="79.1640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="73.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -924,10 +915,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -940,11 +931,11 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -957,11 +948,11 @@
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -974,11 +965,11 @@
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -991,11 +982,11 @@
       <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1012,7 +1003,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1025,11 +1016,11 @@
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1042,11 +1033,11 @@
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1059,11 +1050,11 @@
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1076,11 +1067,11 @@
       <c r="D10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="E10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1088,16 +1079,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="E11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1105,16 +1096,16 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1122,16 +1113,16 @@
         <v>3</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1139,16 +1130,16 @@
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1156,16 +1147,16 @@
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1173,16 +1164,16 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1190,16 +1181,16 @@
         <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1207,16 +1198,16 @@
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1224,16 +1215,16 @@
         <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1241,16 +1232,16 @@
         <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1258,13 +1249,13 @@
         <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/TestCase_v9.xlsx
+++ b/target/test-classes/TestCase_v9.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaa./Documents/project/apiAuto/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4875AA-FB6F-8241-85CA-68C3A6D051AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{EF4875AA-FB6F-8241-85CA-68C3A6D051AF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="1460" windowWidth="27440" windowHeight="16540" activeTab="1" xr2:uid="{2EB20F32-45DC-094A-B138-EAFCA248D3EC}"/>
+    <workbookView activeTab="1" windowHeight="16540" windowWidth="27440" xWindow="1360" xr2:uid="{2EB20F32-45DC-094A-B138-EAFCA248D3EC}" yWindow="1460"/>
   </bookViews>
   <sheets>
-    <sheet name="ApiInfoSheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Case2" sheetId="2" r:id="rId2"/>
+    <sheet name="ApiInfoSheet" r:id="rId1" sheetId="1"/>
+    <sheet name="Case2" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="89">
   <si>
     <t>CaseId(用例编号)</t>
   </si>
@@ -295,12 +295,16 @@
   </si>
   <si>
     <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -335,28 +339,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -373,10 +377,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -411,7 +415,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -463,7 +467,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -574,21 +578,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -605,7 +609,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -657,15 +661,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F1E633-AA80-884C-B3D0-EDCBFF41C014}">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F1E633-AA80-884C-B3D0-EDCBFF41C014}">
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
@@ -673,10 +677,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="77.1640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.1640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="77.1640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -876,13 +880,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00AAF4D-AF41-AD47-9EED-4A471AC20EBF}">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00AAF4D-AF41-AD47-9EED-4A471AC20EBF}">
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F12"/>
@@ -890,12 +894,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.83203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="35.1640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="55.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="79.1640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="73.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="35.1640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="55.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="79.1640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="73.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -934,6 +938,9 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -951,6 +958,9 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -968,6 +978,9 @@
       <c r="E4" t="s">
         <v>13</v>
       </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -985,6 +998,9 @@
       <c r="E5" t="s">
         <v>16</v>
       </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -1002,6 +1018,9 @@
       <c r="E6" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -1019,6 +1038,9 @@
       <c r="E7" t="s">
         <v>21</v>
       </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -1036,6 +1058,9 @@
       <c r="E8" t="s">
         <v>7</v>
       </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -1053,6 +1078,9 @@
       <c r="E9" t="s">
         <v>10</v>
       </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -1070,6 +1098,9 @@
       <c r="E10" t="s">
         <v>87</v>
       </c>
+      <c r="F10" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -1087,6 +1118,9 @@
       <c r="E11" t="s">
         <v>87</v>
       </c>
+      <c r="F11" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -1104,6 +1138,9 @@
       <c r="E12" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="F12" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -1259,6 +1296,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>